--- a/licencje.xlsx
+++ b/licencje.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grzeg\source\repos\ReadOpXML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84E15E9-B8A7-49E0-96D9-D452125ADFF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BC1949-CFC0-4C40-BAFC-ACC2F71466EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15720" xr2:uid="{E4998768-18BB-432B-8C46-AE2F6317FC15}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>GISNET</t>
   </si>
@@ -81,6 +81,15 @@
   </si>
   <si>
     <t>INO</t>
+  </si>
+  <si>
+    <t>0005</t>
+  </si>
+  <si>
+    <t>OPGK Kraków</t>
+  </si>
+  <si>
+    <t>BYD</t>
   </si>
 </sst>
 </file>
@@ -438,12 +447,13 @@
   <dimension ref="A2:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -531,7 +541,15 @@
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">

--- a/licencje.xlsx
+++ b/licencje.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grzeg\source\repos\ReadOpXML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BC1949-CFC0-4C40-BAFC-ACC2F71466EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34B4FC7-480D-4424-B195-12D4E4371EA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15720" xr2:uid="{E4998768-18BB-432B-8C46-AE2F6317FC15}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>GISNET</t>
   </si>
@@ -90,13 +90,55 @@
   </si>
   <si>
     <t>BYD</t>
+  </si>
+  <si>
+    <t>0006</t>
+  </si>
+  <si>
+    <t>OPGK Koszalin</t>
+  </si>
+  <si>
+    <t>TCH</t>
+  </si>
+  <si>
+    <t>0007</t>
+  </si>
+  <si>
+    <t>CHE</t>
+  </si>
+  <si>
+    <t>0404</t>
+  </si>
+  <si>
+    <t>0416</t>
+  </si>
+  <si>
+    <t>0403</t>
+  </si>
+  <si>
+    <t>0407</t>
+  </si>
+  <si>
+    <t>0410</t>
+  </si>
+  <si>
+    <t>0405</t>
+  </si>
+  <si>
+    <t>0413</t>
+  </si>
+  <si>
+    <t>LP</t>
+  </si>
+  <si>
+    <t>TERYT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,16 +147,31 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -122,14 +179,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -444,138 +523,189 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F85E25C0-8EC0-4F8E-B8E7-1E58CDC5B68C}">
-  <dimension ref="A2:D12"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="E1" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="E2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="E3" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="E4" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="E5" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="E6" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="E7" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="B10" s="2"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>